--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3550.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3550.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.706144282710882</v>
+        <v>0.2382100373506546</v>
       </c>
       <c r="B1">
-        <v>1.675484907282448</v>
+        <v>0.2247202843427658</v>
       </c>
       <c r="C1">
-        <v>1.793886071624804</v>
+        <v>0.2253018766641617</v>
       </c>
       <c r="D1">
-        <v>2.538401630772801</v>
+        <v>0.2872776985168457</v>
       </c>
       <c r="E1">
-        <v>4.076087745661488</v>
+        <v>0.4499534964561462</v>
       </c>
     </row>
   </sheetData>
